--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7CF214-F4CE-4137-83FB-88108BF5D562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15BDAF3-B922-4550-A613-C718021DCB42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="221">
   <si>
     <r>
       <rPr>
@@ -3441,21 +3441,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3470,7 +3470,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -3484,7 +3484,7 @@
       <c r="F3" s="64"/>
       <c r="G3" s="64"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="18">
       <c r="C4" s="65" t="s">
         <v>3</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3605,7 +3605,7 @@
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E26" s="62"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3680,18 +3680,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="18.4140625" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="12" max="12" width="10.4140625" customWidth="1"/>
-    <col min="13" max="13" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -4666,11 +4666,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="37" t="s">
@@ -5417,6 +5424,82 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" t="str">
+        <f>角色!E15</f>
+        <v>iam_role-15</v>
+      </c>
+      <c r="H36" t="str">
+        <f>E12</f>
+        <v>iam_label-12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" t="str">
+        <f>角色!E16</f>
+        <v>iam_role-16</v>
+      </c>
+      <c r="H37" t="str">
+        <f>E15</f>
+        <v>iam_label-15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" t="str">
+        <f>角色!E17</f>
+        <v>iam_role-17</v>
+      </c>
+      <c r="H38" t="str">
+        <f>E14</f>
+        <v>iam_label-14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" t="str">
+        <f>角色!E18</f>
+        <v>iam_role-18</v>
+      </c>
+      <c r="H39" t="str">
+        <f>E16</f>
+        <v>iam_label-16</v>
+      </c>
+      <c r="I39" t="s">
         <v>97</v>
       </c>
     </row>
